--- a/Software_Testing_Lab/StudentNames.xlsx
+++ b/Software_Testing_Lab/StudentNames.xlsx
@@ -14,21 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Student Name</t>
   </si>
   <si>
+    <t>USN</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Kumar</t>
   </si>
   <si>
+    <t xml:space="preserve">Rahul </t>
+  </si>
+  <si>
     <t>Sathvik</t>
   </si>
   <si>
     <t>Chandan</t>
   </si>
   <si>
+    <t>Achyut</t>
+  </si>
+  <si>
+    <t>Surabhi</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
     <t>Sudhir</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>1SI17IS019</t>
+  </si>
+  <si>
+    <t>1SI17ME023</t>
+  </si>
+  <si>
+    <t>IS17CS021</t>
+  </si>
+  <si>
+    <t>1SI17CV099</t>
+  </si>
+  <si>
+    <t>1SI17IS011</t>
+  </si>
+  <si>
+    <t>1SI17TE100</t>
+  </si>
+  <si>
+    <t>1SI17IS001</t>
+  </si>
+  <si>
+    <t>1SI17CS120</t>
+  </si>
+  <si>
+    <t>1SI17IS002</t>
+  </si>
+  <si>
+    <t>1SI17CS007</t>
   </si>
 </sst>
 </file>
@@ -386,35 +449,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
